--- a/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 1.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/415 jetstream adjunct file - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570A5761-79A5-CF43-9683-820024B2FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC07FC5-4D50-BF47-ACC8-7FC0FAA96ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="182">
   <si>
     <t>filetags</t>
   </si>
@@ -422,6 +422,171 @@
   </si>
   <si>
     <t>then plase place a black 6 px separator above the item for</t>
+  </si>
+  <si>
+    <t>asn_mrm_id</t>
+  </si>
+  <si>
+    <t>create table public.yeg_columns (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  yeg_column_id serial not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  yeg_table_name character varying(255) not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  yeg_column_name character varying(255) not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sql_data_type character varying(100) not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  postgre_data_type character varying(100) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ui_component_type character varying(100) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  yeg_ui_width character varying(50) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ordinal_position_in_db_table integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fk_zug_table_id integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rackui_column_mappings jsonb null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  moon_row_module_mappings jsonb null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  character_maximum_length integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  numeric_precision integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  numeric_scale integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  datetime_precision integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_nullable boolean null default true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_primary_key boolean null default false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_foreign_key boolean null default false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_unique boolean null default false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  has_default boolean null default false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  column_default text null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  foreign_table_name character varying(255) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  foreign_column_name character varying(255) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  foreign_key_name character varying(255) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  display_name character varying(255) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  description text null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  column_category character varying(100) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sensitivity_level character varying(50) null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_searchable boolean null default true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_sortable boolean null default true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_filterable boolean null default true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  distinct_count_cached integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  null_count_cached integer null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  stats_updated_at timestamp with time zone null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  is_deprecated boolean null default false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  deprecation_note text null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  last_used_at timestamp with time zone null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  usage_frequency integer null default 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  validation_rules jsonb null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  transformation_rules jsonb null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  custom_metadata jsonb null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  created_at timestamp with time zone null default CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  updated_at timestamp with time zone null default CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  constraint yeg_columns_pkey primary key (yeg_column_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  constraint uk_yeg_columns_table_name_column_name unique (yeg_table_name, yeg_column_name),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  constraint yeg_columns_fk_zug_table_id_fkey foreign KEY (fk_zug_table_id) references zug_tables (zug_table_id)</t>
+  </si>
+  <si>
+    <t>) TABLESPACE pg_default;</t>
+  </si>
+  <si>
+    <t>create index IF not exists idx_yeg_columns_table_name on public.yeg_columns using btree (yeg_table_name) TABLESPACE pg_default;</t>
+  </si>
+  <si>
+    <t>create index IF not exists idx_yeg_columns_fk_zug_table_id on public.yeg_columns using btree (fk_zug_table_id) TABLESPACE pg_default;</t>
+  </si>
+  <si>
+    <t>create index IF not exists idx_yeg_columns_is_searchable on public.yeg_columns using btree (is_searchable) TABLESPACE pg_default;</t>
+  </si>
+  <si>
+    <t>create trigger update_yeg_columns_updated_at BEFORE</t>
+  </si>
+  <si>
+    <t>update on yeg_columns for EACH row</t>
+  </si>
+  <si>
+    <t>execute FUNCTION update_updated_at_column ();</t>
   </si>
 </sst>
 </file>
@@ -460,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +650,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -498,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +679,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,11 +960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:I188"/>
+  <dimension ref="D1:I276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,12 +1345,12 @@
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F58" t="s">
@@ -1186,117 +1358,116 @@
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E61" s="2"/>
+      <c r="E61" s="9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E63" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E63" s="2"/>
-    </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E65" s="2" t="s">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E66" s="2" t="s">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D72" s="8"/>
-      <c r="E72" s="7" t="s">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D73" s="8"/>
+      <c r="E73" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="76" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
     <row r="77" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E83" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    <row r="78" spans="4:7" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E87" t="s">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="2"/>
+    </row>
     <row r="94" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E110" t="s">
+    <row r="96" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E111" s="2" t="s">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E114" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F114" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E115" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F115" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E116" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F116" t="s">
         <v>93</v>
@@ -1304,7 +1475,7 @@
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E117" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F117" t="s">
         <v>93</v>
@@ -1312,44 +1483,44 @@
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E118" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="F118" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E119" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E120" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E120" s="2"/>
-    </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E122" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E122" s="2"/>
-    </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E123" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F123" t="s">
-        <v>78</v>
-      </c>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F124" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F125" t="s">
         <v>93</v>
@@ -1357,7 +1528,7 @@
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F126" t="s">
         <v>93</v>
@@ -1365,135 +1536,424 @@
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="F127" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E128" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E129" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E129" s="2"/>
-    </row>
-    <row r="136" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="133" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E138" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E141" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E142" t="s">
-        <v>117</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E143" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E144" t="s">
-        <v>118</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E145" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E146" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E152" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E154" t="s">
-        <v>105</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E155" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E157" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E158" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E159" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E161" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E162" t="s">
-        <v>106</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E163" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E166" t="s">
-        <v>121</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E168" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E170" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E171" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E172" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E173" t="s">
-        <v>109</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E174" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E175" t="s">
-        <v>110</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E176" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E177" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E178" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E179" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E182" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E184" t="s">
-        <v>122</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E180" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E181" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E183" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E185" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E187" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E189" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E190" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E191" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="203" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E212" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E213" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E214" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E215" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E217" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E219" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E227" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E230" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E231" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E235" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E237" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E238" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E239" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E245" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E246" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E248" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E251" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E252" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E255" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E257" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E258" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E260" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E188" t="s">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E261" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="273" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
